--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1362415.519721287</v>
+        <v>-1364313.75182541</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>26.09428328287034</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>315.2468879269487</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>327.7268593084461</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>299.6819060997528</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>33.83411182775066</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>76.27526719558723</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>118.2018791869479</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>197.1365038682893</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>127.7594927339634</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>151.5218864977493</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>116.1394845889525</v>
+        <v>106.35762614905</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>31.13654107019678</v>
+        <v>131.8312713849235</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.0041688483411</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>58.99239495697629</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>118.0014809629769</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>149.4433890341031</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>41.39867729553902</v>
+        <v>126.7699550103364</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.1924487276189</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>81.43563059004575</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>31.70036527687781</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.48723857461968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789589</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224545</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1081.137450349466</v>
+        <v>1124.478210561589</v>
       </c>
       <c r="C2" t="n">
-        <v>712.1749334090548</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>712.1749334090548</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>712.1749334090548</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>1844.742540586358</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X2" t="n">
-        <v>1471.276782325278</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y2" t="n">
-        <v>1081.137450349466</v>
+        <v>1150.836072463478</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4513,25 +4513,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>450.2477713451374</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>450.2477713451374</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>450.2477713451374</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y4" t="n">
-        <v>450.2477713451374</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1481.844651382451</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1481.844651382451</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1123.5789527757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>737.7907001774561</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>326.8047953878485</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2321.843821647252</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2068.082036285343</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X5" t="n">
-        <v>1871.983983358263</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1481.844651382451</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9927747426011</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9927747426011</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="D7" t="n">
-        <v>351.9927747426011</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9927747426011</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9927747426011</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1386.090004781549</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="C8" t="n">
-        <v>1017.127487841138</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="D8" t="n">
-        <v>658.8617892343871</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="E8" t="n">
-        <v>658.8617892343871</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="F8" t="n">
-        <v>651.9162884851836</v>
+        <v>314.8409034303758</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1386.090004781549</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128.6681430463432</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="C13" t="n">
-        <v>128.6681430463432</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="D13" t="n">
-        <v>128.6681430463432</v>
+        <v>546.46840711167</v>
       </c>
       <c r="E13" t="n">
-        <v>128.6681430463432</v>
+        <v>398.5553135292769</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X13" t="n">
-        <v>531.109187020113</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.3166078765829</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="14">
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>474.7746905116418</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>721.5398184181058</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1028.859951698067</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1439.327992823583</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1439.327992823583</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188989</v>
+        <v>1184.643504617696</v>
       </c>
       <c r="W16" t="n">
-        <v>420.0340835819383</v>
+        <v>895.2263345807353</v>
       </c>
       <c r="X16" t="n">
-        <v>420.0340835819383</v>
+        <v>895.2263345807353</v>
       </c>
       <c r="Y16" t="n">
-        <v>199.2415044384082</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2019.424464420119</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>4135.104449941206</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>4015.911034827087</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>4015.911034827087</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U19" t="n">
-        <v>1347.963352341637</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V19" t="n">
-        <v>1093.27886413575</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W19" t="n">
-        <v>803.861694098789</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X19" t="n">
-        <v>575.8721432007717</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="Y19" t="n">
-        <v>575.8721432007717</v>
+        <v>4316.752914771445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635878</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>286.9470307957487</v>
+        <v>523.5986531011361</v>
       </c>
       <c r="C22" t="n">
-        <v>286.9470307957487</v>
+        <v>523.5986531011361</v>
       </c>
       <c r="D22" t="n">
-        <v>286.9470307957487</v>
+        <v>523.5986531011361</v>
       </c>
       <c r="E22" t="n">
-        <v>139.0339372133556</v>
+        <v>375.6855595187429</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X22" t="n">
-        <v>468.5954956259884</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y22" t="n">
-        <v>468.5954956259884</v>
+        <v>705.2471179313758</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6072,22 +6072,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141288</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.274692278279</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1925.814757496976</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.3990000507114</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507114</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1305.58295440251</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1305.58295440251</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>1050.898466196623</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655738</v>
+        <v>1050.898466196623</v>
       </c>
       <c r="X25" t="n">
-        <v>955.1031435655738</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.3105644220436</v>
+        <v>822.9089152986054</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,19 +6236,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>190.6805289025654</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277032</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L27" t="n">
-        <v>638.3691419079769</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>821.8466850111571</v>
+        <v>538.8019868198124</v>
       </c>
       <c r="C28" t="n">
-        <v>821.8466850111571</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D28" t="n">
-        <v>671.7300455988213</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8169520164282</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
         <v>208.7516828383384</v>
@@ -6379,7 +6379,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.156678913841</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W28" t="n">
-        <v>1133.156678913841</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X28" t="n">
-        <v>905.1671280158234</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.8466850111571</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845919</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1321.461721072714</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039406</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F31" t="n">
         <v>320.8847398504512</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6901,7 +6901,7 @@
         <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,34 +6926,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7093,52 +7093,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1024.771599890051</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M39" t="n">
         <v>1332.091733170013</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
         <v>320.884739850451</v>
@@ -7327,7 +7327,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,13 +7400,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7427,13 +7427,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>2013.406634128705</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,22 +7819,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>412.600292959643</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.8856946302409</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>32.78140656352429</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>188.8856946302408</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119858</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.49733361305248</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>104.8749102765755</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119848</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>113.602692129455</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N33" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>272.8719470256804</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>230.7151863772033</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>28.12263706262951</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>50.02600384405881</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>79.1491864332653</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>142.3093861565076</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>114.2845069527345</v>
+        <v>13.58977663800772</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.82781133359616</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.555166101413</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>49.24534013565089</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>136.7939633644743</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>104.0223707273922</v>
+        <v>18.65109301259487</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.639531454318387</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>140.1119304683435</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.54645582175</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.0974147774751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122046.6412035809</v>
+        <v>122046.641203581</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
-        <v>117308.7179213125</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="F2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="G2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="H2" t="n">
         <v>117308.7179213126</v>
@@ -26335,7 +26335,7 @@
         <v>117308.7179213126</v>
       </c>
       <c r="J2" t="n">
-        <v>117308.7179213127</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796426</v>
@@ -26344,16 +26344,16 @@
         <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>54505.51210371254</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371258</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152552.7115643755</v>
+        <v>152552.7115643754</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26427,19 +26427,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143918</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="J4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
         <v>37464.45686275959</v>
@@ -26448,16 +26448,16 @@
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275955</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26503,10 +26503,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703333.0276387484</v>
+        <v>-703351.5213766828</v>
       </c>
       <c r="C6" t="n">
         <v>-116477.7708349896</v>
@@ -26528,37 +26528,37 @@
         <v>-116477.7708349896</v>
       </c>
       <c r="E6" t="n">
-        <v>-514884.3141257393</v>
+        <v>-514981.7732517114</v>
       </c>
       <c r="F6" t="n">
-        <v>10275.72235115686</v>
+        <v>10178.26322518465</v>
       </c>
       <c r="G6" t="n">
-        <v>10275.72235115687</v>
+        <v>10178.26322518462</v>
       </c>
       <c r="H6" t="n">
-        <v>10275.72235115686</v>
+        <v>10178.26322518471</v>
       </c>
       <c r="I6" t="n">
-        <v>10275.72235115689</v>
+        <v>10178.26322518474</v>
       </c>
       <c r="J6" t="n">
-        <v>-166147.4968414361</v>
+        <v>-166244.9559674082</v>
       </c>
       <c r="K6" t="n">
-        <v>-66528.80930685494</v>
+        <v>-66528.80930685495</v>
       </c>
       <c r="L6" t="n">
-        <v>-12023.2972031425</v>
+        <v>-12023.29720314243</v>
       </c>
       <c r="M6" t="n">
-        <v>-146824.3124369797</v>
+        <v>-146824.3124369796</v>
       </c>
       <c r="N6" t="n">
-        <v>-12023.29720314249</v>
+        <v>-12023.29720314243</v>
       </c>
       <c r="O6" t="n">
-        <v>-12023.29720314247</v>
+        <v>-12023.2972031424</v>
       </c>
       <c r="P6" t="n">
         <v>-66528.80930685498</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,19 +26738,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964072</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>356.6395583806103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>49.55906261766017</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>218.3035314960773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>295.582290833847</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>19.31181648936851</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.6744699126058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.78791576130166</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>297.6446854318424</v>
+        <v>307.426543871745</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>111.4067897366017</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33029,7 +33029,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,10 +33038,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33266,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33275,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>745.7948663576559</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4611332181801</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,10 +35744,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>315.1451088046324</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36440,25 +36440,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>395.9791095617654</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490663</v>
+        <v>94.40751256795913</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>354.1326152325997</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>424.0270691799211</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36996,7 +36996,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N33" t="n">
-        <v>418.4946367192911</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>479.9653619572051</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>479.9728913332276</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>310.4863393037377</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
